--- a/test files/xlsx_random_tree_dataset_1.xlsx
+++ b/test files/xlsx_random_tree_dataset_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Data-Quality\test files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Data-Quality\Data-Quality\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064070B-4B44-471D-9886-E21341300F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E36F8E4-E09B-4CCC-A496-83A815082E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="33">
   <si>
     <t>high</t>
   </si>
@@ -309,6 +309,27 @@
   </si>
   <si>
     <t>ending date</t>
+  </si>
+  <si>
+    <t>09-50-22</t>
+  </si>
+  <si>
+    <t>2001-19-30</t>
+  </si>
+  <si>
+    <t>51-11-2024</t>
+  </si>
+  <si>
+    <t>11-13-2012</t>
+  </si>
+  <si>
+    <t>13-2020</t>
+  </si>
+  <si>
+    <t>51-12-24</t>
+  </si>
+  <si>
+    <t>ju</t>
   </si>
 </sst>
 </file>
@@ -701,7 +722,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>40982</v>
+        <v>40980</v>
       </c>
       <c r="H2" s="3">
         <v>43173</v>
@@ -809,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="4">
-        <v>40982</v>
+        <v>41041</v>
       </c>
       <c r="H4" s="4">
         <v>40982</v>
@@ -835,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="5">
-        <v>40982</v>
+        <v>40991</v>
       </c>
       <c r="H5" s="5">
         <v>40982</v>
@@ -861,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>40983</v>
+        <v>805</v>
       </c>
       <c r="H6" s="6">
         <v>40983</v>
@@ -887,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>43904</v>
+        <v>43993</v>
       </c>
       <c r="H7" s="6">
         <v>43904</v>
@@ -913,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>40982</v>
+        <v>40251</v>
       </c>
       <c r="H8" s="7">
         <v>40982</v>
@@ -937,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="8">
-        <v>40982</v>
+        <v>40922</v>
       </c>
       <c r="H9" s="8">
         <v>40982</v>
@@ -963,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="9">
-        <v>40982</v>
+        <v>40972</v>
       </c>
       <c r="H10" s="9">
         <v>40982</v>
@@ -989,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="10">
-        <v>40982</v>
+        <v>4457</v>
       </c>
       <c r="H11" s="10">
         <v>40982</v>
@@ -1039,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>36845</v>
+        <v>36777</v>
       </c>
       <c r="H13" s="6">
         <v>36845</v>
@@ -1195,7 +1216,7 @@
       <c r="G19" s="6">
         <v>43904</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="11">
         <v>43904</v>
       </c>
     </row>
@@ -1221,7 +1242,7 @@
       <c r="G20" s="7">
         <v>40982</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="11">
         <v>40982</v>
       </c>
     </row>
@@ -1247,7 +1268,7 @@
       <c r="G21" s="8">
         <v>40982</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="11">
         <v>40982</v>
       </c>
     </row>
@@ -1342,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G25" s="6">
         <v>36845</v>
@@ -1627,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>22</v>
@@ -1641,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="2">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>2</v>
@@ -1653,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="6">
-        <v>36845</v>
+        <v>43784</v>
       </c>
       <c r="H37" s="6">
         <v>36845</v>
@@ -1679,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>40982</v>
+        <v>40987</v>
       </c>
       <c r="H38" s="3">
         <v>40982</v>
@@ -1755,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>40982</v>
+        <v>40979</v>
       </c>
       <c r="H41" s="5">
         <v>40982</v>
@@ -1781,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>40983</v>
+        <v>40999</v>
       </c>
       <c r="H42" s="6">
         <v>40983</v>
@@ -1806,8 +1827,8 @@
       <c r="F43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="6">
-        <v>43904</v>
+      <c r="G43" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H43" s="6">
         <v>43904</v>
@@ -1833,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="7">
-        <v>40982</v>
+        <v>40992</v>
       </c>
       <c r="H44" s="7">
         <v>40982</v>
@@ -1859,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="8">
-        <v>40982</v>
+        <v>40616</v>
       </c>
       <c r="H45" s="8">
         <v>40982</v>
@@ -1884,8 +1905,8 @@
       <c r="F46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="9">
-        <v>40982</v>
+      <c r="G46" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H46" s="9">
         <v>40982</v>
@@ -1911,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="10">
-        <v>40982</v>
+        <v>32586</v>
       </c>
       <c r="H47" s="10">
         <v>40982</v>
@@ -1935,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>22</v>
@@ -1961,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <v>36845</v>
+        <v>36855</v>
       </c>
       <c r="H49" s="6">
         <v>36845</v>
@@ -1987,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
@@ -2013,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>24</v>
